--- a/data/trans_orig/Q5405-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Provincia-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6567</v>
+        <v>5696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02979864508721598</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1674051916348316</v>
+        <v>0.145203797910413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6193</v>
+        <v>5826</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01566718871139207</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08299057627666644</v>
+        <v>0.0780776467028747</v>
       </c>
     </row>
     <row r="5">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5622</v>
+        <v>5495</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0513106910695076</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1588714728363747</v>
+        <v>0.1552995483053142</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6269</v>
+        <v>6398</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02433314636755748</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08401742686502471</v>
+        <v>0.08574004452664251</v>
       </c>
     </row>
     <row r="6">
@@ -870,7 +870,7 @@
         <v>33570</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29764</v>
+        <v>29891</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>35386</v>
@@ -879,7 +879,7 @@
         <v>0.9486893089304924</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8411285271636253</v>
+        <v>0.8447004516946859</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>38062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>32664</v>
+        <v>33535</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>39231</v>
@@ -900,7 +900,7 @@
         <v>0.970201354912784</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8325948083651667</v>
+        <v>0.854796202089587</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -912,19 +912,19 @@
         <v>71632</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>66339</v>
+        <v>66878</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>73733</v>
+        <v>73720</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9599996649210505</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.889058796059395</v>
+        <v>0.8962878176906994</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9881550581346333</v>
+        <v>0.9879780533000515</v>
       </c>
     </row>
     <row r="7">
@@ -1016,19 +1016,19 @@
         <v>3744</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11186</v>
+        <v>10591</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05616864333664032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01495182062124741</v>
+        <v>0.01482976082802298</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1678267486262355</v>
+        <v>0.1588914253657413</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7470</v>
+        <v>7056</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02118826196213699</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0763174440899574</v>
+        <v>0.07209206274552388</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1058,19 +1058,19 @@
         <v>5818</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2073</v>
+        <v>2026</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14099</v>
+        <v>12965</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03535955588802644</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01259923834042056</v>
+        <v>0.01231442595779842</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08569141309011558</v>
+        <v>0.0788002091233387</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4805</v>
+        <v>5104</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01510437098854368</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07209170007508564</v>
+        <v>0.07656878878160177</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1108,19 +1108,19 @@
         <v>2892</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7370</v>
+        <v>8648</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0295455866273147</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009078070595677175</v>
+        <v>0.009057899679319399</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07530489308120904</v>
+        <v>0.08836096188145741</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1129,19 +1129,19 @@
         <v>3899</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8907</v>
+        <v>10527</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02369514408144405</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006097452422991388</v>
+        <v>0.006129810755459836</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05413715336523038</v>
+        <v>0.06398416027069666</v>
       </c>
     </row>
     <row r="10">
@@ -1158,19 +1158,19 @@
         <v>61903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54557</v>
+        <v>54879</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65600</v>
+        <v>65623</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.928726985674816</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8185051444515725</v>
+        <v>0.8233439517573135</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9841842927957082</v>
+        <v>0.9845307607635383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -1179,19 +1179,19 @@
         <v>92909</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87243</v>
+        <v>86360</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96034</v>
+        <v>96103</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9492661514105483</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8913693879052761</v>
+        <v>0.8823481026982914</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9811891012339466</v>
+        <v>0.9818925522223888</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -1200,19 +1200,19 @@
         <v>154813</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>146771</v>
+        <v>146637</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159778</v>
+        <v>159733</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9409453000305296</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8920686067553718</v>
+        <v>0.8912516618564935</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9711215807731527</v>
+        <v>0.9708506672570684</v>
       </c>
     </row>
     <row r="11">
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5089</v>
+        <v>5182</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01863722505053117</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09990336452825503</v>
+        <v>0.1017215873765512</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6545</v>
+        <v>5128</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01215387737553149</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07836724944448412</v>
+        <v>0.06139523965449034</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7597</v>
+        <v>6418</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01461005437172802</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>4.111454517874972e-07</v>
+        <v>4.143085201292838e-07</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0565017007220762</v>
+        <v>0.04773052841782301</v>
       </c>
     </row>
     <row r="14">
@@ -1422,7 +1422,7 @@
         <v>49991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45851</v>
+        <v>45758</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>50940</v>
@@ -1431,7 +1431,7 @@
         <v>0.9813627749494689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9000966354717408</v>
+        <v>0.8982784126234487</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>82506</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76976</v>
+        <v>78393</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>83521</v>
@@ -1452,7 +1452,7 @@
         <v>0.9878461226244685</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9216327505555165</v>
+        <v>0.9386047603455097</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>132497</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126864</v>
+        <v>128043</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>134461</v>
@@ -1473,10 +1473,10 @@
         <v>0.985389945628272</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9434982992779251</v>
+        <v>0.9522694715821777</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9999995888545482</v>
+        <v>0.9999995856914798</v>
       </c>
     </row>
     <row r="15">
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5387</v>
+        <v>5209</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01425581255063412</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07248979953236311</v>
+        <v>0.07009806102241356</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5962</v>
+        <v>5330</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008184754746640941</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04606227594506952</v>
+        <v>0.0411812015299498</v>
       </c>
     </row>
     <row r="17">
@@ -1631,19 +1631,19 @@
         <v>2592</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6888</v>
+        <v>7083</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04703150631832373</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01463381133356399</v>
+        <v>0.01483208696726595</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1249573213708694</v>
+        <v>0.1285058465625945</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5996</v>
+        <v>6233</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02360288182504646</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0806863136466385</v>
+        <v>0.08388016141193058</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1673,19 +1673,19 @@
         <v>4347</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1692</v>
+        <v>1671</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9580</v>
+        <v>8768</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03358032317127193</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01307499882670134</v>
+        <v>0.01290899686636985</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07401026735187285</v>
+        <v>0.06773720872071638</v>
       </c>
     </row>
     <row r="18">
@@ -1702,19 +1702,19 @@
         <v>52530</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48234</v>
+        <v>48039</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54315</v>
+        <v>54304</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9529684936816762</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8750426786291305</v>
+        <v>0.8714941534374052</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.985366188666436</v>
+        <v>0.9851679130327341</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -1723,19 +1723,19 @@
         <v>71500</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>66234</v>
+        <v>66017</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>73449</v>
+        <v>73459</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9621413056243194</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8912794588063231</v>
+        <v>0.8883592766320361</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9883682151319831</v>
+        <v>0.9885026421071057</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>131</v>
@@ -1744,19 +1744,19 @@
         <v>124030</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>118029</v>
+        <v>118583</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>126885</v>
+        <v>127552</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9582349220820872</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9118686850572268</v>
+        <v>0.916148229923692</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9802896053931345</v>
+        <v>0.9854483095925288</v>
       </c>
     </row>
     <row r="19">
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4081</v>
+        <v>4557</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02957935006790525</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1390717536214151</v>
+        <v>0.1552940388705714</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1869,19 +1869,19 @@
         <v>4365</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9357</v>
+        <v>10803</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1058364408594091</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02807549027171075</v>
+        <v>0.02802400173458928</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.226848908412083</v>
+        <v>0.261908707013366</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1890,19 +1890,19 @@
         <v>5233</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1994</v>
+        <v>1917</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11247</v>
+        <v>11081</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07413462521681101</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02825307100909235</v>
+        <v>0.02715407011887886</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1593163611234083</v>
+        <v>0.1569653648332619</v>
       </c>
     </row>
     <row r="21">
@@ -1919,19 +1919,19 @@
         <v>4281</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1653</v>
+        <v>1639</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8679</v>
+        <v>8618</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1458809684774247</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05632988341812147</v>
+        <v>0.05586510097328279</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2957215899739007</v>
+        <v>0.2936674671717372</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6946</v>
+        <v>7825</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0555552329601449</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1683980668280927</v>
+        <v>0.1897046061827872</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1961,19 +1961,19 @@
         <v>6573</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2766</v>
+        <v>2852</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12287</v>
+        <v>12552</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09310570578082994</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03918406835461515</v>
+        <v>0.0403943742060299</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1740567690407052</v>
+        <v>0.1778080578411318</v>
       </c>
     </row>
     <row r="22">
@@ -1990,19 +1990,19 @@
         <v>24198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19611</v>
+        <v>19787</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27526</v>
+        <v>27565</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.82453968145467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6682536359130193</v>
+        <v>0.6742358392301478</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9379472399353461</v>
+        <v>0.9392719391228801</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -2011,19 +2011,19 @@
         <v>34589</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29289</v>
+        <v>28045</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38966</v>
+        <v>38729</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.838608326180446</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.710095302515749</v>
+        <v>0.6799542670412582</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9447124079192719</v>
+        <v>0.9389809232499133</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>61</v>
@@ -2032,19 +2032,19 @@
         <v>58787</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51426</v>
+        <v>51405</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64272</v>
+        <v>64008</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8327596690023591</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7284889279885731</v>
+        <v>0.7281952957803897</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9104525908672708</v>
+        <v>0.9067210017898066</v>
       </c>
     </row>
     <row r="23">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4343</v>
+        <v>4685</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01799008403008113</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09201990002753506</v>
+        <v>0.09926967699106949</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4258</v>
+        <v>4640</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007225778672564317</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03624014160635581</v>
+        <v>0.03948490559361256</v>
       </c>
     </row>
     <row r="25">
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5627</v>
+        <v>4871</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02023955563975354</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.119217264634082</v>
+        <v>0.1031974032847225</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4841</v>
+        <v>4858</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008129286624752386</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04120209604312131</v>
+        <v>0.04134360543484326</v>
       </c>
     </row>
     <row r="26">
@@ -2262,7 +2262,7 @@
         <v>45392</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41665</v>
+        <v>41150</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>47196</v>
@@ -2271,7 +2271,7 @@
         <v>0.9617703603301654</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8828149060374297</v>
+        <v>0.8719027541676758</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         <v>115702</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>111300</v>
+        <v>111924</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>117506</v>
@@ -2305,7 +2305,7 @@
         <v>0.9846449347026833</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9471815986076279</v>
+        <v>0.9524997271311506</v>
       </c>
       <c r="W26" s="6" t="n">
         <v>1</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4647</v>
+        <v>4960</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007914843998951463</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04387212315636137</v>
+        <v>0.04682816184850948</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2421,19 +2421,19 @@
         <v>2917</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8034</v>
+        <v>8058</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02490625527830399</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007561474615023096</v>
+        <v>0.007589457357467011</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06859458031461896</v>
+        <v>0.06880337697187718</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2442,19 +2442,19 @@
         <v>3755</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1108</v>
+        <v>894</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9457</v>
+        <v>8993</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01683688906022994</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00496582891317116</v>
+        <v>0.00400738166782942</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04240074300678617</v>
+        <v>0.04031688744613113</v>
       </c>
     </row>
     <row r="29">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6484</v>
+        <v>5724</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01778646486844108</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06121241161716748</v>
+        <v>0.05403535257667306</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6557</v>
+        <v>6542</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01725170467702855</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05598905187276506</v>
+        <v>0.0558584532028193</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2513,19 +2513,19 @@
         <v>3905</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9966</v>
+        <v>9332</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0175056668554733</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00425924384485138</v>
+        <v>0.004327081728055617</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04468243170071572</v>
+        <v>0.04183652852657727</v>
       </c>
     </row>
     <row r="30">
@@ -2542,19 +2542,19 @@
         <v>103206</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>98497</v>
+        <v>98761</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>105114</v>
+        <v>105116</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9742986911326075</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9298511968327898</v>
+        <v>0.9323426505441077</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9923179308797936</v>
+        <v>0.992332690503101</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>112</v>
@@ -2563,19 +2563,19 @@
         <v>112183</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>106527</v>
+        <v>105919</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>115302</v>
+        <v>115323</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9578420400446674</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9095484197296992</v>
+        <v>0.9043519043168463</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9844662421145045</v>
+        <v>0.9846475029344982</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>217</v>
@@ -2584,19 +2584,19 @@
         <v>215389</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>208343</v>
+        <v>209159</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>219384</v>
+        <v>219903</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9656574440842968</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9340676521531203</v>
+        <v>0.9377262310421908</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.983569687822372</v>
+        <v>0.9858965899411291</v>
       </c>
     </row>
     <row r="31">
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4738</v>
+        <v>5407</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.008447207392766238</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04234507906235332</v>
+        <v>0.04832584818672817</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -2709,19 +2709,19 @@
         <v>7540</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3433</v>
+        <v>2717</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14840</v>
+        <v>15360</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04920774770315962</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02240322339324306</v>
+        <v>0.0177352796850315</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09685092575537119</v>
+        <v>0.1002463148565535</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -2730,19 +2730,19 @@
         <v>8485</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3465</v>
+        <v>3591</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16101</v>
+        <v>16611</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03200480793146387</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01307043716296089</v>
+        <v>0.01354650883963178</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0607298940773873</v>
+        <v>0.06265635528089221</v>
       </c>
     </row>
     <row r="33">
@@ -2759,19 +2759,19 @@
         <v>5418</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1791</v>
+        <v>1881</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>10363</v>
+        <v>10809</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04842264154747337</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01600457251207009</v>
+        <v>0.0168064518562134</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0926116881641568</v>
+        <v>0.09660418213176181</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>7</v>
@@ -2780,19 +2780,19 @@
         <v>7792</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3261</v>
+        <v>3454</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>14570</v>
+        <v>15046</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05085536003485661</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02128280314469437</v>
+        <v>0.02254415130818952</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09508983816929559</v>
+        <v>0.09819559841647568</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>13</v>
@@ -2801,19 +2801,19 @@
         <v>13210</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>7334</v>
+        <v>7217</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>22095</v>
+        <v>21632</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04982863395857657</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02766203436836295</v>
+        <v>0.02722312511355066</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08334083444126771</v>
+        <v>0.08159495301219785</v>
       </c>
     </row>
     <row r="34">
@@ -2830,19 +2830,19 @@
         <v>105530</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>99604</v>
+        <v>99021</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>109217</v>
+        <v>109233</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9431301510597604</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8901709662711288</v>
+        <v>0.8849654831687156</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9760850393048759</v>
+        <v>0.9762298034717792</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>131</v>
@@ -2851,19 +2851,19 @@
         <v>137893</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>128937</v>
+        <v>128176</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>144793</v>
+        <v>145053</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8999368922619838</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8414865486225039</v>
+        <v>0.8365234863636178</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9449676189803287</v>
+        <v>0.9466637095576907</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>240</v>
@@ -2872,19 +2872,19 @@
         <v>243422</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>233215</v>
+        <v>232916</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>251488</v>
+        <v>251513</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9181665581099595</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8796639535483447</v>
+        <v>0.8785386747936329</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9485874613696911</v>
+        <v>0.9486817600899005</v>
       </c>
     </row>
     <row r="35">
@@ -2976,19 +2976,19 @@
         <v>7245</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2784</v>
+        <v>2867</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14408</v>
+        <v>14412</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01441809987404169</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005540652978728638</v>
+        <v>0.005706213084557945</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02867365366648616</v>
+        <v>0.02868307430575869</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>17</v>
@@ -2997,19 +2997,19 @@
         <v>19124</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>11481</v>
+        <v>11577</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>29687</v>
+        <v>29993</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02825542475754658</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01696330761689787</v>
+        <v>0.0171040510530135</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04386157750209649</v>
+        <v>0.04431244599907519</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>24</v>
@@ -3018,19 +3018,19 @@
         <v>26369</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>17296</v>
+        <v>17891</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>38089</v>
+        <v>39753</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02235977634296704</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01466587859601042</v>
+        <v>0.01517086112667945</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03229780288102699</v>
+        <v>0.03370861545688648</v>
       </c>
     </row>
     <row r="37">
@@ -3047,19 +3047,19 @@
         <v>18903</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11710</v>
+        <v>12484</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28069</v>
+        <v>28613</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03762027967193211</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02330593310157119</v>
+        <v>0.02484544981174411</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05586214034409136</v>
+        <v>0.05694494872669317</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>18</v>
@@ -3068,19 +3068,19 @@
         <v>17765</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10686</v>
+        <v>10771</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>27338</v>
+        <v>27269</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02624715923202036</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01578745328979385</v>
+        <v>0.01591415225280615</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04039063373303959</v>
+        <v>0.04028819979137103</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>39</v>
@@ -3089,19 +3089,19 @@
         <v>36668</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25873</v>
+        <v>26258</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>49635</v>
+        <v>50270</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03109288772758518</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02193919458647274</v>
+        <v>0.02226546291443803</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04208846217022089</v>
+        <v>0.04262663453013012</v>
       </c>
     </row>
     <row r="38">
@@ -3118,19 +3118,19 @@
         <v>476318</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>465949</v>
+        <v>464648</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>484610</v>
+        <v>484327</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9479616204540262</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9273245961582749</v>
+        <v>0.924734930898388</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9644642018441343</v>
+        <v>0.9639002161145193</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>626</v>
@@ -3139,19 +3139,19 @@
         <v>639952</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>626865</v>
+        <v>627579</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>650695</v>
+        <v>650948</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.945497416010433</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9261617831071114</v>
+        <v>0.9272163529897057</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9613690840457205</v>
+        <v>0.9617427551384777</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1121</v>
@@ -3160,19 +3160,19 @@
         <v>1116271</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1100261</v>
+        <v>1099327</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1130373</v>
+        <v>1130302</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9465473359294477</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9329715509956085</v>
+        <v>0.9321797971421373</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9585051405879949</v>
+        <v>0.9584448090069819</v>
       </c>
     </row>
     <row r="39">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4524</v>
+        <v>5955</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02358949921732404</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.102162281188588</v>
+        <v>0.1344740740999099</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7949</v>
+        <v>7854</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04680714391128935</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1625734282299762</v>
+        <v>0.1606375220040837</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -3550,19 +3550,19 @@
         <v>3333</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9305</v>
+        <v>9076</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03577310666488032</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0112134081836291</v>
+        <v>0.01121008373764894</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09986192420813043</v>
+        <v>0.09740963034106039</v>
       </c>
     </row>
     <row r="5">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6153</v>
+        <v>6260</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04603639988600741</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1389466226057944</v>
+        <v>0.1413637597193496</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7040</v>
+        <v>7026</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04150178537663499</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1439782317851513</v>
+        <v>0.1436926440609169</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -3621,19 +3621,19 @@
         <v>4068</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9203</v>
+        <v>9402</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04365683193945569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01103851221428994</v>
+        <v>0.01103030743886873</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09877132149506182</v>
+        <v>0.100911950247384</v>
       </c>
     </row>
     <row r="6">
@@ -3650,19 +3650,19 @@
         <v>41198</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36597</v>
+        <v>36527</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43348</v>
+        <v>43347</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9303741008966685</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8264826887403292</v>
+        <v>0.82489077131816</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9789267845711627</v>
+        <v>0.9789106859291026</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -3671,7 +3671,7 @@
         <v>44576</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38203</v>
+        <v>39157</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>47762</v>
@@ -3680,10 +3680,10 @@
         <v>0.9116910707120757</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7813462879128287</v>
+        <v>0.8008648465050263</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.976853808554964</v>
+        <v>0.9768500580621859</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>80</v>
@@ -3692,19 +3692,19 @@
         <v>85774</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>79102</v>
+        <v>79720</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>90008</v>
+        <v>90001</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.920570061395664</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8489604733022065</v>
+        <v>0.8555927682205038</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9660089305440444</v>
+        <v>0.965931625371481</v>
       </c>
     </row>
     <row r="7">
@@ -3796,19 +3796,19 @@
         <v>4194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1076</v>
+        <v>1045</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10499</v>
+        <v>9613</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05295456098112867</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01358445882963311</v>
+        <v>0.01318914668068727</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1325631303983006</v>
+        <v>0.1213704654135888</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -3817,19 +3817,19 @@
         <v>6739</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2262</v>
+        <v>2300</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13844</v>
+        <v>15385</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06601246337098074</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0221517992822781</v>
+        <v>0.02253207800251213</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1355983320608233</v>
+        <v>0.1507001804349654</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -3838,19 +3838,19 @@
         <v>10934</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5585</v>
+        <v>5123</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21372</v>
+        <v>19191</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06030785609320596</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03080735808330381</v>
+        <v>0.02825804325162024</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1178828226447732</v>
+        <v>0.1058546830823103</v>
       </c>
     </row>
     <row r="9">
@@ -3867,19 +3867,19 @@
         <v>9809</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4394</v>
+        <v>3639</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20818</v>
+        <v>19865</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1238489351805339</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05547186360222194</v>
+        <v>0.04594321660811685</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2628438272609843</v>
+        <v>0.2508136194892335</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -3888,19 +3888,19 @@
         <v>9598</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4465</v>
+        <v>4522</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16496</v>
+        <v>16895</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09401245986525651</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04373116666255343</v>
+        <v>0.04429764056296639</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1615805263794418</v>
+        <v>0.165488073097912</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -3909,19 +3909,19 @@
         <v>19407</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10894</v>
+        <v>11038</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30878</v>
+        <v>30485</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1070471241738942</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06008834947836432</v>
+        <v>0.06088490172229814</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1703189592595304</v>
+        <v>0.1681523436337675</v>
       </c>
     </row>
     <row r="10">
@@ -3938,19 +3938,19 @@
         <v>65200</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55226</v>
+        <v>55742</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71683</v>
+        <v>72641</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8231965038383374</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6972680063457664</v>
+        <v>0.7037821474176684</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9050582874325954</v>
+        <v>0.9171456064721645</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -3959,19 +3959,19 @@
         <v>85756</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77184</v>
+        <v>77129</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92361</v>
+        <v>92401</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8399750767637627</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7560209321513101</v>
+        <v>0.7554752155750691</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9046742734891655</v>
+        <v>0.9050683858370165</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>138</v>
@@ -3980,19 +3980,19 @@
         <v>150955</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>137528</v>
+        <v>137812</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>161166</v>
+        <v>160794</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8326450197328998</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7585836077465736</v>
+        <v>0.7601484990772055</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8889673912460682</v>
+        <v>0.8869160413297484</v>
       </c>
     </row>
     <row r="11">
@@ -4084,19 +4084,19 @@
         <v>3044</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7392</v>
+        <v>7973</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05460793928669413</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01684378906442343</v>
+        <v>0.01719326050110823</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1326157613122421</v>
+        <v>0.1430347801341565</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -4105,19 +4105,19 @@
         <v>6557</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2243</v>
+        <v>2214</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13243</v>
+        <v>12267</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08199501576711242</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02804779057564359</v>
+        <v>0.02768181382431974</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1656055368217195</v>
+        <v>0.1533961154890042</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -4126,19 +4126,19 @@
         <v>9601</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4348</v>
+        <v>4330</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17657</v>
+        <v>17462</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07074592634641648</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03203550218236416</v>
+        <v>0.03190268686257055</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1301092713973128</v>
+        <v>0.1286699471564238</v>
       </c>
     </row>
     <row r="13">
@@ -4155,19 +4155,19 @@
         <v>4126</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12364</v>
+        <v>11762</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07401317255415779</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01809532961705925</v>
+        <v>0.01831038102248607</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2218052958305992</v>
+        <v>0.2109993017926254</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4176,19 +4176,19 @@
         <v>9513</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4245</v>
+        <v>5261</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16132</v>
+        <v>18500</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1189630011764377</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05308128135415568</v>
+        <v>0.06578514106926889</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2017249907883416</v>
+        <v>0.2313436386039488</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -4197,19 +4197,19 @@
         <v>13639</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7478</v>
+        <v>8256</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22118</v>
+        <v>23478</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1005001089440915</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05510389232300523</v>
+        <v>0.06083502458744565</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1629782919527861</v>
+        <v>0.1729981169002064</v>
       </c>
     </row>
     <row r="14">
@@ -4226,19 +4226,19 @@
         <v>48572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40856</v>
+        <v>40642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53657</v>
+        <v>52711</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8713788881591481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7329397897591586</v>
+        <v>0.7291034876369485</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9625987496578153</v>
+        <v>0.9456205258171025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -4247,19 +4247,19 @@
         <v>63898</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56447</v>
+        <v>55572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>71313</v>
+        <v>70019</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7990419830564499</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7058737111132904</v>
+        <v>0.6949247366681426</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8917713529814212</v>
+        <v>0.8755844318617539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>107</v>
@@ -4268,19 +4268,19 @@
         <v>112470</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>102212</v>
+        <v>101779</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>120759</v>
+        <v>119907</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.828753964709492</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7531633616697064</v>
+        <v>0.7499729477733434</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8898319607932357</v>
+        <v>0.8835544932548876</v>
       </c>
     </row>
     <row r="15">
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5953</v>
+        <v>4320</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01507723084788352</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0929698646120974</v>
+        <v>0.06747819899665203</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7594</v>
+        <v>7623</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02544278826055592</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08873850537284933</v>
+        <v>0.08907956752716063</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -4414,19 +4414,19 @@
         <v>3143</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8525</v>
+        <v>8325</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02100646631221184</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006523354620876476</v>
+        <v>0.006413584438741498</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05698144165652091</v>
+        <v>0.05564497886790214</v>
       </c>
     </row>
     <row r="17">
@@ -4443,19 +4443,19 @@
         <v>4482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1141</v>
+        <v>1150</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10205</v>
+        <v>10353</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07000526466482378</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01781287515584997</v>
+        <v>0.01796488693074252</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1593760784315197</v>
+        <v>0.1616910697768357</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -4464,19 +4464,19 @@
         <v>5454</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2076</v>
+        <v>2160</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12062</v>
+        <v>11909</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.063735852895922</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02426082908905608</v>
+        <v>0.02524676255962074</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1409570787737444</v>
+        <v>0.1391648063009055</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -4485,19 +4485,19 @@
         <v>9936</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5384</v>
+        <v>4440</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17595</v>
+        <v>17429</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06641907849839493</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03598914586748719</v>
+        <v>0.02967900467209635</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1176109872805745</v>
+        <v>0.1165042886585311</v>
       </c>
     </row>
     <row r="18">
@@ -4514,19 +4514,19 @@
         <v>58580</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52230</v>
+        <v>52537</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>61968</v>
+        <v>61930</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9149175044872927</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8157356658847776</v>
+        <v>0.8205389628558402</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.967834025655255</v>
+        <v>0.9672287453275579</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>75</v>
@@ -4535,19 +4535,19 @@
         <v>77943</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>70683</v>
+        <v>71474</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>82275</v>
+        <v>82288</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9108213588435221</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8259870108892731</v>
+        <v>0.83523495870478</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9614528823043195</v>
+        <v>0.9615969101023946</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>128</v>
@@ -4556,19 +4556,19 @@
         <v>136523</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>129036</v>
+        <v>128345</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>142048</v>
+        <v>142169</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9125744551893933</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8625296077721223</v>
+        <v>0.8579077639479946</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9495092890046333</v>
+        <v>0.9503129862741265</v>
       </c>
     </row>
     <row r="19">
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5634</v>
+        <v>4832</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03658695443468548</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1782146403147828</v>
+        <v>0.1528587838780087</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -4681,19 +4681,19 @@
         <v>3971</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9088</v>
+        <v>8922</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07965452444408563</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01992441843681553</v>
+        <v>0.01964768872269744</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1822983949851177</v>
+        <v>0.1789521710237523</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -4702,19 +4702,19 @@
         <v>5128</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1990</v>
+        <v>1967</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11452</v>
+        <v>11449</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06294271801710895</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02442631517847507</v>
+        <v>0.02414423406759304</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1405736476362268</v>
+        <v>0.1405298977753744</v>
       </c>
     </row>
     <row r="21">
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6411</v>
+        <v>6413</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06754208567192821</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2027878195585621</v>
+        <v>0.2028593076819824</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6699</v>
+        <v>5661</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02223988506424747</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1343688548930448</v>
+        <v>0.1135418757542274</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -4773,19 +4773,19 @@
         <v>3244</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1021</v>
+        <v>1041</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8801</v>
+        <v>9511</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03981881062485796</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01253190161415431</v>
+        <v>0.01278155677737764</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1080267499408316</v>
+        <v>0.1167459922409114</v>
       </c>
     </row>
     <row r="22">
@@ -4802,19 +4802,19 @@
         <v>28320</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23793</v>
+        <v>23449</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30657</v>
+        <v>30590</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8958709598933863</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7526460709648076</v>
+        <v>0.7417752325505212</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.969774665129058</v>
+        <v>0.9676569023195207</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -4823,19 +4823,19 @@
         <v>44775</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39361</v>
+        <v>39253</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47860</v>
+        <v>47904</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8981055904916669</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7895125969559338</v>
+        <v>0.787333984288627</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9599930946191833</v>
+        <v>0.9608747855123028</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -4844,19 +4844,19 @@
         <v>73095</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>65631</v>
+        <v>65487</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77356</v>
+        <v>77428</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8972384713580331</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8056095941111694</v>
+        <v>0.8038516939139636</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9495413673440707</v>
+        <v>0.9504254018776188</v>
       </c>
     </row>
     <row r="23">
@@ -4948,19 +4948,19 @@
         <v>4258</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1079</v>
+        <v>2100</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9519</v>
+        <v>11658</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08226464120096759</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02085163661019617</v>
+        <v>0.04057029325344116</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1839262590061146</v>
+        <v>0.2252397360152602</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4969,19 +4969,19 @@
         <v>3243</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8594</v>
+        <v>8632</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04619111604277585</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01510450179486464</v>
+        <v>0.0149579246544149</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1223993721835304</v>
+        <v>0.1229402808969897</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -4990,19 +4990,19 @@
         <v>7501</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3241</v>
+        <v>3221</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>14944</v>
+        <v>14928</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06149864108576704</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02657217523716429</v>
+        <v>0.0264059144908255</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.122522524444899</v>
+        <v>0.1223902550594246</v>
       </c>
     </row>
     <row r="25">
@@ -5019,19 +5019,19 @@
         <v>6426</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2184</v>
+        <v>2153</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12831</v>
+        <v>11906</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1241607729094946</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04219708215883692</v>
+        <v>0.04159397045465509</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2479124915008327</v>
+        <v>0.2300350826795998</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -5040,19 +5040,19 @@
         <v>4374</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9739</v>
+        <v>9877</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06229331193928014</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01569450425533318</v>
+        <v>0.01563531661200807</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1387077250939257</v>
+        <v>0.1406753288110284</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -5061,19 +5061,19 @@
         <v>10800</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5399</v>
+        <v>5381</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18284</v>
+        <v>18343</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08854629675279178</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04426809786914528</v>
+        <v>0.04411721048093157</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1499101444668514</v>
+        <v>0.1503912392262081</v>
       </c>
     </row>
     <row r="26">
@@ -5090,19 +5090,19 @@
         <v>41072</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33860</v>
+        <v>34746</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>46357</v>
+        <v>46397</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7935745858895378</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6542247110725982</v>
+        <v>0.6713348472583041</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8956919465694619</v>
+        <v>0.896460408538581</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -5111,19 +5111,19 @@
         <v>62595</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>57172</v>
+        <v>55920</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>66932</v>
+        <v>66922</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.891515572017944</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8142715086032466</v>
+        <v>0.7964438156780165</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9532826003200076</v>
+        <v>0.9531409707676628</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>102</v>
@@ -5132,19 +5132,19 @@
         <v>103667</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>94947</v>
+        <v>95208</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>111110</v>
+        <v>111138</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8499550621614411</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7784618565526603</v>
+        <v>0.780597260479267</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9109725815455916</v>
+        <v>0.9112086160838491</v>
       </c>
     </row>
     <row r="27">
@@ -5236,19 +5236,19 @@
         <v>3547</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9945</v>
+        <v>10633</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03159648680294402</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009143616002602538</v>
+        <v>0.009096693874949309</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08858995052602338</v>
+        <v>0.09471158044044595</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -5257,19 +5257,19 @@
         <v>3123</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>929</v>
+        <v>945</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8572</v>
+        <v>8374</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02200043885048771</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006541938653752223</v>
+        <v>0.006656540696261472</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06037924568904664</v>
+        <v>0.05898414163424887</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -5278,19 +5278,19 @@
         <v>6670</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2522</v>
+        <v>3021</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>13410</v>
+        <v>14939</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02623794718019315</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009920912128437719</v>
+        <v>0.01188475651148217</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05274804444093868</v>
+        <v>0.05876259051189181</v>
       </c>
     </row>
     <row r="29">
@@ -5307,19 +5307,19 @@
         <v>4093</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9610</v>
+        <v>9382</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03646342266574161</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008950211129525938</v>
+        <v>0.009121437896775319</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0856040758278421</v>
+        <v>0.08357487061499895</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -5328,19 +5328,19 @@
         <v>8173</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3254</v>
+        <v>3949</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14897</v>
+        <v>15251</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05756916236272644</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02292280887131589</v>
+        <v>0.02781700146991491</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1049359739941292</v>
+        <v>0.1074325664449488</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -5349,19 +5349,19 @@
         <v>12266</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6876</v>
+        <v>6962</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19898</v>
+        <v>21097</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04824910183221658</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02704854816664791</v>
+        <v>0.02738312279244809</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07827052787522011</v>
+        <v>0.08298713057992671</v>
       </c>
     </row>
     <row r="30">
@@ -5378,19 +5378,19 @@
         <v>104622</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>97264</v>
+        <v>96297</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>109156</v>
+        <v>108413</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9319400905313143</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8663947490417633</v>
+        <v>0.8577829174227212</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9723282804262409</v>
+        <v>0.9657096186818319</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>118</v>
@@ -5399,19 +5399,19 @@
         <v>130666</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>122085</v>
+        <v>123230</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>135852</v>
+        <v>135911</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9204303987867859</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8599840148772231</v>
+        <v>0.868047777886786</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9569595721889309</v>
+        <v>0.9573764470579532</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>211</v>
@@ -5420,19 +5420,19 @@
         <v>235289</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>225133</v>
+        <v>225318</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>242325</v>
+        <v>242455</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9255129509875902</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8855634849185863</v>
+        <v>0.8862915735077089</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9531881371240999</v>
+        <v>0.9536989184454487</v>
       </c>
     </row>
     <row r="31">
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4983</v>
+        <v>5590</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.008279076332650528</v>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.041269580377481</v>
+        <v>0.04629469731720199</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -5545,19 +5545,19 @@
         <v>3295</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8852</v>
+        <v>8764</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02004230745257541</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00604079483233373</v>
+        <v>0.006097190894330673</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05383823862266009</v>
+        <v>0.05330445991927761</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -5566,19 +5566,19 @@
         <v>4295</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1114</v>
+        <v>1195</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10011</v>
+        <v>10926</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0150612730217457</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003905299722356283</v>
+        <v>0.004192228975850364</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03510569773398482</v>
+        <v>0.03831321897503819</v>
       </c>
     </row>
     <row r="33">
@@ -5595,19 +5595,19 @@
         <v>3352</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>9170</v>
+        <v>9178</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02775621766473337</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.008852467448794209</v>
+        <v>0.008871562201570503</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07594268502926517</v>
+        <v>0.0760098273467442</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>5</v>
@@ -5616,19 +5616,19 @@
         <v>5609</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2211</v>
+        <v>2155</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11449</v>
+        <v>11262</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03411611289284983</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.013445263082916</v>
+        <v>0.0131056794122045</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.06963279546805216</v>
+        <v>0.06849739732843933</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>8</v>
@@ -5637,19 +5637,19 @@
         <v>8961</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4383</v>
+        <v>4400</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>16965</v>
+        <v>16921</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03142307245313092</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01536877465218104</v>
+        <v>0.01542828948312615</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05949227263298103</v>
+        <v>0.05933501094796588</v>
       </c>
     </row>
     <row r="34">
@@ -5666,19 +5666,19 @@
         <v>116401</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>110810</v>
+        <v>109981</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>119641</v>
+        <v>119645</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9639647060026161</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9176641445762186</v>
+        <v>0.9107979120564286</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9908009540454</v>
+        <v>0.9908312819423403</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>143</v>
@@ -5687,19 +5687,19 @@
         <v>155512</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>148652</v>
+        <v>148222</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>160075</v>
+        <v>160208</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9458415796545747</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9041157435415406</v>
+        <v>0.9014996132498716</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9735938081683831</v>
+        <v>0.9744015048269576</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>245</v>
@@ -5708,19 +5708,19 @@
         <v>271913</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>263026</v>
+        <v>262926</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>278593</v>
+        <v>278280</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9535156545251234</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9223526701648507</v>
+        <v>0.9219992216584596</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9769386806878267</v>
+        <v>0.9758409682178169</v>
       </c>
     </row>
     <row r="35">
@@ -5812,19 +5812,19 @@
         <v>19209</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11564</v>
+        <v>11868</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>30076</v>
+        <v>28999</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03432430949097351</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02066403025955053</v>
+        <v>0.02120735158087489</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05374149188419765</v>
+        <v>0.0518171831798356</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>28</v>
@@ -5833,19 +5833,19 @@
         <v>31395</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>20995</v>
+        <v>21395</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>44502</v>
+        <v>43463</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04225588818751946</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02825735605637962</v>
+        <v>0.02879605204033956</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05989701835333207</v>
+        <v>0.05849842573873892</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>46</v>
@@ -5854,19 +5854,19 @@
         <v>50604</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>36952</v>
+        <v>38376</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>66094</v>
+        <v>67782</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03884826943616802</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02836763365758283</v>
+        <v>0.02946084382348716</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05073988833633487</v>
+        <v>0.05203548415738152</v>
       </c>
     </row>
     <row r="37">
@@ -5883,19 +5883,19 @@
         <v>36462</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>25069</v>
+        <v>25287</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>51609</v>
+        <v>52936</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06515289036778553</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04479538335827665</v>
+        <v>0.04518507511609017</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09221930553812853</v>
+        <v>0.0945903448280994</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>43</v>
@@ -5904,19 +5904,19 @@
         <v>45859</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>33837</v>
+        <v>33010</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>61150</v>
+        <v>61037</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06172345638650364</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04554253541166191</v>
+        <v>0.04442936896667516</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08230443038332283</v>
+        <v>0.08215162156771952</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>73</v>
@@ -5925,19 +5925,19 @@
         <v>82321</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>64894</v>
+        <v>63989</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>103344</v>
+        <v>101298</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06319683312375106</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0498187105876676</v>
+        <v>0.04912367557746735</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07933591521784379</v>
+        <v>0.07776565408279731</v>
       </c>
     </row>
     <row r="38">
@@ -5954,19 +5954,19 @@
         <v>503966</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>487114</v>
+        <v>486612</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>517171</v>
+        <v>517510</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.900522800141241</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8704107597377291</v>
+        <v>0.8695131017917431</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.924119026237864</v>
+        <v>0.9247236303104305</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>623</v>
@@ -5975,19 +5975,19 @@
         <v>665721</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>647567</v>
+        <v>648182</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>682162</v>
+        <v>681602</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8960206554259769</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8715867816917258</v>
+        <v>0.8724137051188307</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9181487881306915</v>
+        <v>0.9173958451849468</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1079</v>
@@ -5996,19 +5996,19 @@
         <v>1169687</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1144721</v>
+        <v>1146537</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1191513</v>
+        <v>1191621</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8979548974400809</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8787888150770414</v>
+        <v>0.8801827171509997</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9147107254184065</v>
+        <v>0.914793215760022</v>
       </c>
     </row>
     <row r="39">
@@ -6344,19 +6344,19 @@
         <v>4025</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1577</v>
+        <v>1549</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8487</v>
+        <v>8097</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1034712160165381</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04054360168640232</v>
+        <v>0.03982970258278616</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2181942698042609</v>
+        <v>0.2081795519696925</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7509</v>
+        <v>6647</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04380225455200326</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1520256376138335</v>
+        <v>0.1345780578226791</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -6386,19 +6386,19 @@
         <v>6188</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2553</v>
+        <v>2786</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12063</v>
+        <v>12866</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07009013391359563</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02891183053944753</v>
+        <v>0.03155286573044745</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.136628331846101</v>
+        <v>0.1457286035104825</v>
       </c>
     </row>
     <row r="5">
@@ -6415,19 +6415,19 @@
         <v>2542</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6923</v>
+        <v>6775</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06535435655353114</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0</v>
+        <v>0.02110011076102278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1779927201100843</v>
+        <v>0.1741836684023149</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -6436,19 +6436,19 @@
         <v>8326</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3492</v>
+        <v>3615</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14986</v>
+        <v>15247</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1685799899951461</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07069860165986749</v>
+        <v>0.07319837428860339</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3034074881906118</v>
+        <v>0.3086977739454244</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -6457,19 +6457,19 @@
         <v>10868</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5321</v>
+        <v>5784</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18236</v>
+        <v>18774</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.12310269439063</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06027358997368149</v>
+        <v>0.06551151916435062</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2065584810504396</v>
+        <v>0.2126522031272765</v>
       </c>
     </row>
     <row r="6">
@@ -6486,19 +6486,19 @@
         <v>32329</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27159</v>
+        <v>27934</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35816</v>
+        <v>35812</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8311744274299308</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6982425660073092</v>
+        <v>0.7181739161266539</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9208133995344266</v>
+        <v>0.9207154820896223</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -6507,19 +6507,19 @@
         <v>38901</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31458</v>
+        <v>31133</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44405</v>
+        <v>44271</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7876177554528506</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6369100184906177</v>
+        <v>0.630340476405887</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8990440978844914</v>
+        <v>0.8963300104432622</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>68</v>
@@ -6528,19 +6528,19 @@
         <v>71231</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>62686</v>
+        <v>63273</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>77670</v>
+        <v>77281</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8068071716957743</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7100203667422685</v>
+        <v>0.7166688958841357</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8797404378823495</v>
+        <v>0.8753332547283017</v>
       </c>
     </row>
     <row r="7">
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8177</v>
+        <v>9771</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02338034340526987</v>
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07096756438091503</v>
+        <v>0.08479828313636002</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9501</v>
+        <v>9156</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01330255435120407</v>
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04691321684821653</v>
+        <v>0.04521103706791137</v>
       </c>
     </row>
     <row r="9">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8406</v>
+        <v>8040</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02318535446571184</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07294718508757991</v>
+        <v>0.06977533783648146</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8095</v>
+        <v>10684</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01319161282560741</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03996914011695966</v>
+        <v>0.05275511816359189</v>
       </c>
     </row>
     <row r="10">
@@ -6771,19 +6771,19 @@
         <v>109862</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103167</v>
+        <v>102201</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113880</v>
+        <v>113876</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9534343021290183</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8953284965768693</v>
+        <v>0.8869460711813918</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9882974148607041</v>
+        <v>0.9882637133995662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -6792,19 +6792,19 @@
         <v>197157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>189624</v>
+        <v>189269</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>201176</v>
+        <v>201168</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9735058328231885</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9363065894979966</v>
+        <v>0.9345569642233332</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9933476056238972</v>
+        <v>0.9933079495483732</v>
       </c>
     </row>
     <row r="11">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4031</v>
+        <v>4459</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01251019570376346</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06343022836276649</v>
+        <v>0.07017546103137048</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -6917,19 +6917,19 @@
         <v>4477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12063</v>
+        <v>11974</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01539825270651756</v>
+        <v>0.01544963995606581</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1509857184063206</v>
+        <v>0.1498721111504753</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -6938,19 +6938,19 @@
         <v>5272</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1996</v>
+        <v>1275</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14658</v>
+        <v>12409</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03675508637544029</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01391263450531504</v>
+        <v>0.008888152550737931</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1021834749167334</v>
+        <v>0.08650553164105489</v>
       </c>
     </row>
     <row r="13">
@@ -6967,19 +6967,19 @@
         <v>4519</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1769</v>
+        <v>1643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10471</v>
+        <v>9671</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0711213544688576</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02784089052559539</v>
+        <v>0.02584944285800427</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1647711200414798</v>
+        <v>0.1521822289963694</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -6988,19 +6988,19 @@
         <v>4091</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1206</v>
+        <v>1226</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11007</v>
+        <v>11134</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05120119853171724</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0151006054506234</v>
+        <v>0.01534311904019122</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1377606745494625</v>
+        <v>0.1393585872553962</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -7009,19 +7009,19 @@
         <v>8610</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3610</v>
+        <v>3963</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16031</v>
+        <v>16468</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06002593593526386</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02516872815245697</v>
+        <v>0.02762686147249689</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1117560057126804</v>
+        <v>0.1148039459524431</v>
       </c>
     </row>
     <row r="14">
@@ -7038,19 +7038,19 @@
         <v>58232</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52471</v>
+        <v>53083</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61145</v>
+        <v>61242</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.916368449827379</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8257150221054054</v>
+        <v>0.8353512439568052</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9622125317647213</v>
+        <v>0.9637441519161486</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -7059,19 +7059,19 @@
         <v>71329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63338</v>
+        <v>63486</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76403</v>
+        <v>76166</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8927605494414115</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7927459678283414</v>
+        <v>0.7946034473598313</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9562652895995485</v>
+        <v>0.9533036226533269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>129</v>
@@ -7080,19 +7080,19 @@
         <v>129560</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>120051</v>
+        <v>119888</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>135715</v>
+        <v>135803</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9032189776892958</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8369255088945742</v>
+        <v>0.8357878739498787</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9461263323008228</v>
+        <v>0.9467373402889555</v>
       </c>
     </row>
     <row r="15">
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4411</v>
+        <v>4837</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01305259388437836</v>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0681689782839236</v>
+        <v>0.07474768140410953</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4799</v>
+        <v>4289</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005404568675905091</v>
@@ -7230,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03070628180289117</v>
+        <v>0.02744080237672201</v>
       </c>
     </row>
     <row r="17">
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8059</v>
+        <v>7744</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02807564522328345</v>
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.088000610788904</v>
+        <v>0.0845698700126512</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8918</v>
+        <v>7896</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01645061849881115</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05706519890693357</v>
+        <v>0.0505218490912908</v>
       </c>
     </row>
     <row r="18">
@@ -7310,7 +7310,7 @@
         <v>63867</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60301</v>
+        <v>59875</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>64712</v>
@@ -7319,7 +7319,7 @@
         <v>0.9869474061156216</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9318310217160737</v>
+        <v>0.9252523185958874</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -7331,7 +7331,7 @@
         <v>89003</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>83515</v>
+        <v>83830</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>91574</v>
@@ -7340,7 +7340,7 @@
         <v>0.9719243547767166</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9119993892110944</v>
+        <v>0.9154301299873482</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -7352,19 +7352,19 @@
         <v>152869</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>146363</v>
+        <v>147374</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>155438</v>
+        <v>155453</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9781448128252838</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9365106668357986</v>
+        <v>0.9429839596206409</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9945808172421823</v>
+        <v>0.9946781714825567</v>
       </c>
     </row>
     <row r="19">
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4491</v>
+        <v>4529</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01898938165383374</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.106715118207106</v>
+        <v>0.107639292517428</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -7524,19 +7524,19 @@
         <v>4227</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9743</v>
+        <v>9775</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08364685707097159</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02245887639811532</v>
+        <v>0.02211774217516937</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1928028556437454</v>
+        <v>0.1934400532600912</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -7545,19 +7545,19 @@
         <v>5026</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1746</v>
+        <v>1834</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10910</v>
+        <v>11110</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0542685769169496</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01884784293386905</v>
+        <v>0.01979946808905611</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1178018041615775</v>
+        <v>0.1199593484287549</v>
       </c>
     </row>
     <row r="22">
@@ -7574,7 +7574,7 @@
         <v>41281</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37589</v>
+        <v>37551</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>42080</v>
@@ -7583,7 +7583,7 @@
         <v>0.9810106183461662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.893284881792892</v>
+        <v>0.8923607074825712</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -7595,19 +7595,19 @@
         <v>46305</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40789</v>
+        <v>40757</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49397</v>
+        <v>49414</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9163531429290284</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8071971443562533</v>
+        <v>0.8065599467399088</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9775411236018846</v>
+        <v>0.9778822578248306</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>88</v>
@@ -7616,19 +7616,19 @@
         <v>87586</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81702</v>
+        <v>81502</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90866</v>
+        <v>90778</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9457314230830504</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8821981958384224</v>
+        <v>0.880040651571245</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.981152157066131</v>
+        <v>0.9802005319109439</v>
       </c>
     </row>
     <row r="23">
@@ -7720,19 +7720,19 @@
         <v>2752</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6840</v>
+        <v>7051</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05679887626931152</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01685587083125525</v>
+        <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1411875994177547</v>
+        <v>0.1455333255830226</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6084</v>
+        <v>6928</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0177163802127103</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09027700847362531</v>
+        <v>0.1028112624886921</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -7762,19 +7762,19 @@
         <v>3946</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>976</v>
+        <v>1222</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9782</v>
+        <v>10774</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03406213587296128</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008428226874127058</v>
+        <v>0.01054723956744615</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08444881261805602</v>
+        <v>0.09300927737801452</v>
       </c>
     </row>
     <row r="25">
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5152</v>
+        <v>4980</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03340294780562977</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1063490789778846</v>
+        <v>0.1027854800805032</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -7812,19 +7812,19 @@
         <v>4972</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11280</v>
+        <v>13265</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07378338058537016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01893062392752616</v>
+        <v>0.0189059964085517</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1673828830978124</v>
+        <v>0.1968421293895865</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -7833,19 +7833,19 @@
         <v>6590</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2438</v>
+        <v>2511</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14043</v>
+        <v>14275</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05689477943981103</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02104853914810513</v>
+        <v>0.02167513475898305</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1212318704617715</v>
+        <v>0.1232398488370358</v>
       </c>
     </row>
     <row r="26">
@@ -7862,19 +7862,19 @@
         <v>44076</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>39366</v>
+        <v>39028</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>46797</v>
+        <v>46803</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9097981759250587</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8125732040939696</v>
+        <v>0.8055883463592576</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9659584931239027</v>
+        <v>0.9660875848606136</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>54</v>
@@ -7883,19 +7883,19 @@
         <v>61222</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>54717</v>
+        <v>53068</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>64999</v>
+        <v>64944</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9085002392019196</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8119765854852588</v>
+        <v>0.7875013452220253</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.964548938024871</v>
+        <v>0.9637331080417924</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>104</v>
@@ -7904,19 +7904,19 @@
         <v>105298</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>97284</v>
+        <v>96813</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>110705</v>
+        <v>110044</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9090430846872277</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8398587564640315</v>
+        <v>0.8357933422635829</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9557176135033352</v>
+        <v>0.9500162029121667</v>
       </c>
     </row>
     <row r="27">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6044</v>
+        <v>6781</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01749155278891181</v>
@@ -8020,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05387608676733462</v>
+        <v>0.0604462422098923</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -8029,19 +8029,19 @@
         <v>4940</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11968</v>
+        <v>11913</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03346128456472074</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008642571643953182</v>
+        <v>0.008668783833899504</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08107020162421166</v>
+        <v>0.08069894555461081</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -8050,19 +8050,19 @@
         <v>6902</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3172</v>
+        <v>2356</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14763</v>
+        <v>14155</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0265655888432434</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01221051889913781</v>
+        <v>0.009066433609330453</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05682318185225638</v>
+        <v>0.05448039004577852</v>
       </c>
     </row>
     <row r="29">
@@ -8079,19 +8079,19 @@
         <v>2842</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7460</v>
+        <v>7780</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02533193002065533</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007763868036305182</v>
+        <v>0.007785141037940601</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06649305720626102</v>
+        <v>0.06934737839706202</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -8100,19 +8100,19 @@
         <v>9347</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4799</v>
+        <v>4327</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17824</v>
+        <v>16679</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06331789726653417</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03250881261023216</v>
+        <v>0.02931405698348518</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1207366022026249</v>
+        <v>0.1129805351198993</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -8121,19 +8121,19 @@
         <v>12189</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5710</v>
+        <v>5934</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>20827</v>
+        <v>20791</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04691563857547881</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0219779203383715</v>
+        <v>0.02283859790902928</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08016422723897977</v>
+        <v>0.08002401313158777</v>
       </c>
     </row>
     <row r="30">
@@ -8150,19 +8150,19 @@
         <v>107381</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>102324</v>
+        <v>101933</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>110414</v>
+        <v>110417</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9571765171904328</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9121046371293857</v>
+        <v>0.9086158448815477</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9842165802644447</v>
+        <v>0.9842376185356919</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>113</v>
@@ -8171,19 +8171,19 @@
         <v>133338</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>123504</v>
+        <v>124669</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>139353</v>
+        <v>140065</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9032208181687451</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8366054184412675</v>
+        <v>0.8445007934401183</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9439648593840787</v>
+        <v>0.9487892184131517</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>217</v>
@@ -8192,19 +8192,19 @@
         <v>240719</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>230749</v>
+        <v>230170</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>248665</v>
+        <v>248670</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9265187725812778</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8881445271588092</v>
+        <v>0.8859157157150623</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9571048306970583</v>
+        <v>0.9571219966066921</v>
       </c>
     </row>
     <row r="31">
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>3693</v>
+        <v>5145</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.006459770917601138</v>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02752737601962935</v>
+        <v>0.03835015358451897</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -8364,19 +8364,19 @@
         <v>5268</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>12344</v>
+        <v>13270</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02987962390356202</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.007540176959641914</v>
+        <v>0.007525361549217706</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07001860890790101</v>
+        <v>0.07527022802928036</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5</v>
@@ -8385,19 +8385,19 @@
         <v>6134</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1727</v>
+        <v>2196</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>14191</v>
+        <v>13780</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0197586718612311</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.005562660889946862</v>
+        <v>0.007072570181613277</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0457096613027601</v>
+        <v>0.04438580348037879</v>
       </c>
     </row>
     <row r="34">
@@ -8414,7 +8414,7 @@
         <v>133301</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>130475</v>
+        <v>129023</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>134168</v>
@@ -8423,7 +8423,7 @@
         <v>0.9935402290823988</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9724726239803708</v>
+        <v>0.9616498464154811</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1</v>
@@ -8435,19 +8435,19 @@
         <v>171029</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>163953</v>
+        <v>163027</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>174968</v>
+        <v>174970</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.970120376096438</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9299813910920968</v>
+        <v>0.9247297719707191</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9924598230403581</v>
+        <v>0.9924746384507823</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>278</v>
@@ -8456,19 +8456,19 @@
         <v>304331</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>296274</v>
+        <v>296685</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>308738</v>
+        <v>308269</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9802413281387689</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9542903386972399</v>
+        <v>0.9556141965196203</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9944373391100532</v>
+        <v>0.9929274298183868</v>
       </c>
     </row>
     <row r="35">
@@ -8560,19 +8560,19 @@
         <v>10378</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5824</v>
+        <v>5850</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17789</v>
+        <v>18011</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01755064381698297</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.009849077333354526</v>
+        <v>0.009893586704926913</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03008257111296432</v>
+        <v>0.03045904812380296</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>12</v>
@@ -8581,19 +8581,19 @@
         <v>15468</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>8379</v>
+        <v>8319</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>26428</v>
+        <v>25536</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01988399581677804</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01077150153657402</v>
+        <v>0.01069434353200324</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03397191913538247</v>
+        <v>0.03282495538924919</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>24</v>
@@ -8602,19 +8602,19 @@
         <v>25847</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>16462</v>
+        <v>16789</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>38086</v>
+        <v>38095</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01887631475042254</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01202259367414917</v>
+        <v>0.01226118890268941</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02781528697923681</v>
+        <v>0.0278217904203269</v>
       </c>
     </row>
     <row r="37">
@@ -8631,19 +8631,19 @@
         <v>13187</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7507</v>
+        <v>7404</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>21499</v>
+        <v>21889</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02230127587811727</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01269450570747232</v>
+        <v>0.01252120407037397</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03635746923199851</v>
+        <v>0.03701641884682792</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>34</v>
@@ -8652,19 +8652,19 @@
         <v>41474</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>28249</v>
+        <v>29411</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>55639</v>
+        <v>57116</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0533127482418017</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03631243452972932</v>
+        <v>0.03780667534125463</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07152146926473413</v>
+        <v>0.07342077288815095</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>49</v>
@@ -8673,19 +8673,19 @@
         <v>54661</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>40249</v>
+        <v>42085</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>72826</v>
+        <v>72385</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0399201381497812</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02939477049650859</v>
+        <v>0.03073576900832173</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05318620219650834</v>
+        <v>0.05286416150758023</v>
       </c>
     </row>
     <row r="38">
@@ -8702,19 +8702,19 @@
         <v>567762</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>557694</v>
+        <v>557263</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>575677</v>
+        <v>575894</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9601480803048997</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9431215933020659</v>
+        <v>0.9423929606218509</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9735331946280621</v>
+        <v>0.9738996230023994</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>609</v>
@@ -8723,19 +8723,19 @@
         <v>720989</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>703966</v>
+        <v>702674</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>735501</v>
+        <v>735218</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9268032559414202</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9049207641252602</v>
+        <v>0.9032599140659309</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9454576142147203</v>
+        <v>0.9450936788632033</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1209</v>
@@ -8744,19 +8744,19 @@
         <v>1288751</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1269661</v>
+        <v>1270290</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1307230</v>
+        <v>1305082</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9412035470997963</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9272610520910998</v>
+        <v>0.9277205169351445</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9546987407985486</v>
+        <v>0.9531303963685356</v>
       </c>
     </row>
     <row r="39">
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6116</v>
+        <v>5893</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02904885245969637</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1003306084745963</v>
+        <v>0.09667860122391911</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -9160,19 +9160,19 @@
         <v>6193</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3141</v>
+        <v>2963</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10777</v>
+        <v>10039</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09487254806043914</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04812009559692049</v>
+        <v>0.04538688418618206</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1650942663999247</v>
+        <v>0.1537932322141543</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -9181,19 +9181,19 @@
         <v>7964</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4294</v>
+        <v>4521</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13527</v>
+        <v>14139</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06308743020562568</v>
+        <v>0.0630874302056257</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03401840443472184</v>
+        <v>0.03581779058589295</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1071594383160814</v>
+        <v>0.1120119485047669</v>
       </c>
     </row>
     <row r="6">
@@ -9210,7 +9210,7 @@
         <v>59184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54839</v>
+        <v>55062</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>60955</v>
@@ -9219,7 +9219,7 @@
         <v>0.9709511475403035</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8996693915254037</v>
+        <v>0.9033213987760772</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -9231,19 +9231,19 @@
         <v>59083</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>54499</v>
+        <v>55237</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62135</v>
+        <v>62313</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9051274519395608</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8349057336000753</v>
+        <v>0.8462067677858458</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9518799044030795</v>
+        <v>0.9546131158138177</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>203</v>
@@ -9252,19 +9252,19 @@
         <v>118267</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>112704</v>
+        <v>112092</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>121937</v>
+        <v>121710</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9369125697943741</v>
+        <v>0.9369125697943742</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8928405616839186</v>
+        <v>0.8879880514952335</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9659815955652782</v>
+        <v>0.964182209414107</v>
       </c>
     </row>
     <row r="7">
@@ -9359,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6278</v>
+        <v>4595</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01043391204860925</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07104044953119215</v>
+        <v>0.05199362599860204</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -9377,19 +9377,19 @@
         <v>8459</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4183</v>
+        <v>4823</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14372</v>
+        <v>14092</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06250922814197027</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03091058296482484</v>
+        <v>0.03563977952049088</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1062024736839375</v>
+        <v>0.1041340087453966</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -9398,19 +9398,19 @@
         <v>9381</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5007</v>
+        <v>5631</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15250</v>
+        <v>15710</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04193684660906481</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02238315225857665</v>
+        <v>0.02516994683563476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06817066253988632</v>
+        <v>0.07022574651539654</v>
       </c>
     </row>
     <row r="9">
@@ -9427,19 +9427,19 @@
         <v>3755</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>994</v>
+        <v>932</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8899</v>
+        <v>8591</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04249448270107616</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.011243011089459</v>
+        <v>0.01054782339893296</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.100701374259604</v>
+        <v>0.09720877927808079</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -9448,19 +9448,19 @@
         <v>12165</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7502</v>
+        <v>7578</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18555</v>
+        <v>18467</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08989026650889408</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05543363777204195</v>
+        <v>0.05599523799092191</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.137114378941949</v>
+        <v>0.1364639256864792</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>23</v>
@@ -9469,19 +9469,19 @@
         <v>15920</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10458</v>
+        <v>10409</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23608</v>
+        <v>23550</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07116653671342885</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04675107187201182</v>
+        <v>0.04652987358681036</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1055345939845278</v>
+        <v>0.1052726006799975</v>
       </c>
     </row>
     <row r="10">
@@ -9498,19 +9498,19 @@
         <v>83696</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78192</v>
+        <v>78026</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86540</v>
+        <v>86526</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9470716052503148</v>
+        <v>0.9470716052503146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8847978846279634</v>
+        <v>0.8829209709239033</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.979255435819733</v>
+        <v>0.9790967703820795</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -9519,19 +9519,19 @@
         <v>114704</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>106969</v>
+        <v>107933</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>120978</v>
+        <v>121120</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8476005053491357</v>
+        <v>0.8476005053491359</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7904391044441185</v>
+        <v>0.7975660953536813</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8939595107102671</v>
+        <v>0.8950124139476626</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>282</v>
@@ -9540,19 +9540,19 @@
         <v>198400</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>189870</v>
+        <v>188923</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>205828</v>
+        <v>205462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8868966166775063</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.848765505957509</v>
+        <v>0.8445354715535256</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.920104155640758</v>
+        <v>0.9184685449235223</v>
       </c>
     </row>
     <row r="11">
@@ -9644,19 +9644,19 @@
         <v>3565</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7375</v>
+        <v>7259</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0493146374310582</v>
+        <v>0.04931463743105819</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01707819591473861</v>
+        <v>0.01712304146459529</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1020304257069411</v>
+        <v>0.10042443715579</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -9665,19 +9665,19 @@
         <v>3148</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1078</v>
+        <v>1135</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6902</v>
+        <v>6245</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.0366685281685421</v>
+        <v>0.03666852816854211</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01255803909201299</v>
+        <v>0.013217350309756</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08039542394232634</v>
+        <v>0.07274072834340178</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -9686,19 +9686,19 @@
         <v>6713</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3511</v>
+        <v>3589</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11030</v>
+        <v>11257</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04244918174603057</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0222052704291517</v>
+        <v>0.0226927437850068</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06974848992949852</v>
+        <v>0.07118528945111605</v>
       </c>
     </row>
     <row r="13">
@@ -9715,19 +9715,19 @@
         <v>1966</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4657</v>
+        <v>4492</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02719448386374273</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006756263662200011</v>
+        <v>0.006766394138236495</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06442617845140203</v>
+        <v>0.06213609195199943</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -9736,19 +9736,19 @@
         <v>3691</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1595</v>
+        <v>1582</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6990</v>
+        <v>7437</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04299710385406372</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01858390630262639</v>
+        <v>0.01842662733535141</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08142384986302549</v>
+        <v>0.08662734732693655</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -9757,19 +9757,19 @@
         <v>5657</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3072</v>
+        <v>3049</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9476</v>
+        <v>9589</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03577358001092361</v>
+        <v>0.03577358001092362</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01942887610644856</v>
+        <v>0.01928153832178639</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05992086270624308</v>
+        <v>0.06063650285200307</v>
       </c>
     </row>
     <row r="14">
@@ -9786,19 +9786,19 @@
         <v>66755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62916</v>
+        <v>62528</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>69669</v>
+        <v>69470</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9234908787051992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8703850785648082</v>
+        <v>0.8650136108194786</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9638071006052116</v>
+        <v>0.9610504080973078</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>156</v>
@@ -9807,19 +9807,19 @@
         <v>79011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74714</v>
+        <v>74579</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82011</v>
+        <v>81984</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9203343679773941</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.870285894221954</v>
+        <v>0.8687154311976666</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9552783525038196</v>
+        <v>0.9549734084226879</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>268</v>
@@ -9828,19 +9828,19 @@
         <v>145765</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>140410</v>
+        <v>140301</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>149997</v>
+        <v>149867</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9217772382430456</v>
+        <v>0.9217772382430458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8879100703545365</v>
+        <v>0.8872242227883873</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9485390617298001</v>
+        <v>0.9477176068097936</v>
       </c>
     </row>
     <row r="15">
@@ -9935,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2819</v>
+        <v>2360</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006848384048270347</v>
@@ -9944,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03389881838315878</v>
+        <v>0.02837920359870013</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -9953,19 +9953,19 @@
         <v>3309</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1524</v>
+        <v>1455</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6171</v>
+        <v>5958</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02994803672884353</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01379181302498225</v>
+        <v>0.0131665455136507</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05584521815818452</v>
+        <v>0.05391838702285962</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -9974,19 +9974,19 @@
         <v>3879</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1846</v>
+        <v>1969</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7251</v>
+        <v>7277</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02002920836759338</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009531390113816901</v>
+        <v>0.01016825212178335</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03744421408754006</v>
+        <v>0.03757382270114884</v>
       </c>
     </row>
     <row r="17">
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3518</v>
+        <v>2959</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008688030313175695</v>
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04230969292383782</v>
+        <v>0.03557842092182113</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -10024,19 +10024,19 @@
         <v>2092</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4431</v>
+        <v>4524</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01892861822887185</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006856422247050837</v>
+        <v>0.006916868091828034</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04009363233737891</v>
+        <v>0.04094012055140062</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -10045,19 +10045,19 @@
         <v>2814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1107</v>
+        <v>1172</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6283</v>
+        <v>6014</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01453138181762888</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005716160562187561</v>
+        <v>0.00605226966839839</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03244199840563999</v>
+        <v>0.03105604239920949</v>
       </c>
     </row>
     <row r="18">
@@ -10074,7 +10074,7 @@
         <v>81864</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78820</v>
+        <v>78727</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>83156</v>
@@ -10083,7 +10083,7 @@
         <v>0.9844635856385541</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9478556474599162</v>
+        <v>0.9467440159235621</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -10095,19 +10095,19 @@
         <v>105103</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>102071</v>
+        <v>101849</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>107609</v>
+        <v>107665</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9511233450422847</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9236888834548213</v>
+        <v>0.9216784154089929</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9738045550611161</v>
+        <v>0.9743107591199079</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>359</v>
@@ -10116,19 +10116,19 @@
         <v>186967</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>182830</v>
+        <v>182706</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>190154</v>
+        <v>189856</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9654394098147777</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9440777302339001</v>
+        <v>0.9434360295108524</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9818978818228412</v>
+        <v>0.9803595353741041</v>
       </c>
     </row>
     <row r="19">
@@ -10233,19 +10233,19 @@
         <v>2071</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4829</v>
+        <v>5158</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03365315967399278</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01283101526757042</v>
+        <v>0.01263250136231293</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07846762844087275</v>
+        <v>0.08381035205418846</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -10254,19 +10254,19 @@
         <v>2071</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5201</v>
+        <v>5738</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.02112378887858605</v>
+        <v>0.02112378887858604</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004819505010927122</v>
+        <v>0.004757576046869944</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05305074758047593</v>
+        <v>0.05852275906839859</v>
       </c>
     </row>
     <row r="21">
@@ -10283,19 +10283,19 @@
         <v>2578</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5744</v>
+        <v>5741</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07062041119290675</v>
+        <v>0.07062041119290673</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02665809627467219</v>
+        <v>0.02693609565717193</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1573605436682601</v>
+        <v>0.1572850994824467</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -10304,19 +10304,19 @@
         <v>4884</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2689</v>
+        <v>2718</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8091</v>
+        <v>7848</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.07935805886844961</v>
+        <v>0.07935805886844959</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04369196094515151</v>
+        <v>0.04415801893957296</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1314636076039102</v>
+        <v>0.1275206074372524</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -10325,19 +10325,19 @@
         <v>7462</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4755</v>
+        <v>4489</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11290</v>
+        <v>11821</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0761049548904863</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04850257040627951</v>
+        <v>0.04578100933393974</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1151467394514291</v>
+        <v>0.1205718287187666</v>
       </c>
     </row>
     <row r="22">
@@ -10354,19 +10354,19 @@
         <v>33925</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30759</v>
+        <v>30762</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35530</v>
+        <v>35520</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9293795888070934</v>
+        <v>0.9293795888070929</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8426394563317398</v>
+        <v>0.8427149005175534</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9733419037253277</v>
+        <v>0.9730639043428281</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>148</v>
@@ -10375,19 +10375,19 @@
         <v>54587</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50777</v>
+        <v>50787</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57372</v>
+        <v>57151</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8869887814575577</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8250724750951993</v>
+        <v>0.8252475610179852</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9322391515332689</v>
+        <v>0.9286498599039797</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>214</v>
@@ -10396,19 +10396,19 @@
         <v>88512</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84444</v>
+        <v>83359</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91663</v>
+        <v>91686</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9027712562309278</v>
+        <v>0.9027712562309277</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8612764212018793</v>
+        <v>0.8502124406403728</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9349074978540041</v>
+        <v>0.9351461738126748</v>
       </c>
     </row>
     <row r="23">
@@ -10500,19 +10500,19 @@
         <v>1615</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3987</v>
+        <v>4105</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02682125402387106</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007482345214511712</v>
+        <v>0.00788726637114074</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06621010545014837</v>
+        <v>0.06816193563887354</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -10521,19 +10521,19 @@
         <v>4590</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2529</v>
+        <v>2719</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8330</v>
+        <v>8366</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06819351875297604</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03756896923077723</v>
+        <v>0.04039888499167852</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1237572443111423</v>
+        <v>0.1242878130830337</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -10542,19 +10542,19 @@
         <v>6205</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3598</v>
+        <v>3465</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10287</v>
+        <v>9610</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.048656586029249</v>
+        <v>0.04865658602924901</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02821594877414927</v>
+        <v>0.02716681839970278</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08066538723819988</v>
+        <v>0.07535288472208435</v>
       </c>
     </row>
     <row r="25">
@@ -10571,7 +10571,7 @@
         <v>2887</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1233</v>
+        <v>1204</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>5607</v>
@@ -10580,10 +10580,10 @@
         <v>0.04793029395140412</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02047315887463936</v>
+        <v>0.01998469085434423</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09310709681585266</v>
+        <v>0.09311000158292194</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -10592,19 +10592,19 @@
         <v>3476</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1770</v>
+        <v>1670</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6168</v>
+        <v>6060</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05164706891246344</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.026301841168836</v>
+        <v>0.02481340068759934</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09164441016866551</v>
+        <v>0.09002667988947476</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -10613,19 +10613,19 @@
         <v>6363</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3822</v>
+        <v>3666</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9669</v>
+        <v>9630</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0498919224915723</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02997061241345593</v>
+        <v>0.02874867625444395</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07581512346668559</v>
+        <v>0.07551189661502349</v>
       </c>
     </row>
     <row r="26">
@@ -10642,19 +10642,19 @@
         <v>55722</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52580</v>
+        <v>52331</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57858</v>
+        <v>57837</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9252484520247248</v>
+        <v>0.9252484520247249</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8730816208274867</v>
+        <v>0.8689316469297399</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9607187589870613</v>
+        <v>0.9603590993470571</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>155</v>
@@ -10663,19 +10663,19 @@
         <v>59243</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>55228</v>
+        <v>55335</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>62085</v>
+        <v>61834</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8801594123345606</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8205136573734576</v>
+        <v>0.8221070931360405</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9223943862542244</v>
+        <v>0.9186616454375005</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>279</v>
@@ -10684,19 +10684,19 @@
         <v>114964</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>110573</v>
+        <v>110648</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>118749</v>
+        <v>118872</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9014514914791786</v>
+        <v>0.9014514914791787</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8670254831458631</v>
+        <v>0.867606507159167</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9311327417234267</v>
+        <v>0.9320947759078687</v>
       </c>
     </row>
     <row r="27">
@@ -10801,19 +10801,19 @@
         <v>3932</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1380</v>
+        <v>1328</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9236</v>
+        <v>8791</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02386438932529081</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008372451923919159</v>
+        <v>0.008060083150998879</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05605353934894349</v>
+        <v>0.05335060205816786</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -10822,19 +10822,19 @@
         <v>3932</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1393</v>
+        <v>1354</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9405</v>
+        <v>9272</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0124390574180783</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004406678640633214</v>
+        <v>0.00428237394314064</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02975118061801083</v>
+        <v>0.02933235443655133</v>
       </c>
     </row>
     <row r="29">
@@ -10854,16 +10854,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5755</v>
+        <v>5515</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.01077812750207212</v>
+        <v>0.01077812750207213</v>
       </c>
       <c r="H29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03802418270444073</v>
+        <v>0.03643801299679732</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -10872,19 +10872,19 @@
         <v>4626</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8540</v>
+        <v>9233</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02807717294148529</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01200299565989094</v>
+        <v>0.01205417226206731</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0518311935814558</v>
+        <v>0.05603767727518232</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -10893,19 +10893,19 @@
         <v>6257</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3033</v>
+        <v>3254</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11601</v>
+        <v>11537</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01979506971524497</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009593653662214046</v>
+        <v>0.01029499855061219</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03670051811394137</v>
+        <v>0.03649560333843128</v>
       </c>
     </row>
     <row r="30">
@@ -10922,16 +10922,16 @@
         <v>149710</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>145586</v>
+        <v>145826</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>151341</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9892218724979277</v>
+        <v>0.9892218724979279</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9619758172955595</v>
+        <v>0.9635619870032037</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>1</v>
@@ -10943,19 +10943,19 @@
         <v>156211</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>150189</v>
+        <v>150285</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>160036</v>
+        <v>160264</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.9480584377332241</v>
+        <v>0.9480584377332238</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9115143336234742</v>
+        <v>0.9120972041165202</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9712768540761481</v>
+        <v>0.972661197220195</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>396</v>
@@ -10964,19 +10964,19 @@
         <v>305921</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>299435</v>
+        <v>299050</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>310458</v>
+        <v>310406</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9677658728666768</v>
+        <v>0.967765872866677</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9472449219031145</v>
+        <v>0.9460288044651812</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9821173404167856</v>
+        <v>0.9819512640419465</v>
       </c>
     </row>
     <row r="31">
@@ -11128,19 +11128,19 @@
         <v>5272</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2306</v>
+        <v>2312</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11725</v>
+        <v>11705</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02488619308863561</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01088310002472307</v>
+        <v>0.0109110922670967</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05534300055451569</v>
+        <v>0.0552483108842358</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>7</v>
@@ -11149,19 +11149,19 @@
         <v>5272</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2298</v>
+        <v>2379</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>12055</v>
+        <v>11035</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01404424614146104</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.006120853095589026</v>
+        <v>0.006337293646674001</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03210984532760815</v>
+        <v>0.02939507338596458</v>
       </c>
     </row>
     <row r="34">
@@ -11191,19 +11191,19 @@
         <v>206590</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>200137</v>
+        <v>200157</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>209556</v>
+        <v>209550</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9751138069113644</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9446569994454845</v>
+        <v>0.9447516891157642</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9891168999752771</v>
+        <v>0.9890889077329033</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>570</v>
@@ -11212,19 +11212,19 @@
         <v>370145</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>363362</v>
+        <v>364382</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>373119</v>
+        <v>373038</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.985955753858539</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9678901546723916</v>
+        <v>0.9706049266140354</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9938791469044109</v>
+        <v>0.9936627063533259</v>
       </c>
     </row>
     <row r="35">
@@ -11316,19 +11316,19 @@
         <v>6672</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3638</v>
+        <v>3585</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11664</v>
+        <v>11441</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.009312702217684815</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005078216534076775</v>
+        <v>0.005004246833234258</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01628131712506798</v>
+        <v>0.0159705405641793</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>47</v>
@@ -11337,19 +11337,19 @@
         <v>25510</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>18315</v>
+        <v>18718</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>34252</v>
+        <v>34294</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02826759284800224</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02029536926950113</v>
+        <v>0.02074202059516719</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03795438082822851</v>
+        <v>0.03800159762154692</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>59</v>
@@ -11358,19 +11358,19 @@
         <v>32181</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>24402</v>
+        <v>24096</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>41253</v>
+        <v>41736</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01987936637047489</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01507366404212529</v>
+        <v>0.01488457006199414</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02548293431000347</v>
+        <v>0.02578151997570391</v>
       </c>
     </row>
     <row r="37">
@@ -11387,19 +11387,19 @@
         <v>15310</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10135</v>
+        <v>9533</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>23179</v>
+        <v>22428</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02137074787185815</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01414700823392642</v>
+        <v>0.01330747222978109</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0323555659502956</v>
+        <v>0.03130626130258966</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>78</v>
@@ -11408,19 +11408,19 @@
         <v>42399</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>33645</v>
+        <v>32620</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>53442</v>
+        <v>52062</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04698307761305073</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03728274944543554</v>
+        <v>0.03614643460750831</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05921955477307701</v>
+        <v>0.05769070952802288</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>103</v>
@@ -11429,19 +11429,19 @@
         <v>57709</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>47773</v>
+        <v>47503</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>71138</v>
+        <v>70415</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0356486929058869</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02951063630029996</v>
+        <v>0.02934420903501487</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04394394849262884</v>
+        <v>0.04349717579770845</v>
       </c>
     </row>
     <row r="38">
@@ -11458,19 +11458,19 @@
         <v>694410</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>685628</v>
+        <v>686049</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>700515</v>
+        <v>700921</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.969316549910457</v>
+        <v>0.9693165499104572</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9570580046396788</v>
+        <v>0.9576467243009044</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9778391412897371</v>
+        <v>0.9784051827411809</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1581</v>
@@ -11479,19 +11479,19 @@
         <v>834530</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>822002</v>
+        <v>821894</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>845745</v>
+        <v>845962</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9247493295389471</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9108666577786397</v>
+        <v>0.9107475678684885</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9371772064895569</v>
+        <v>0.9374173174437235</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2571</v>
@@ -11500,19 +11500,19 @@
         <v>1528940</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1513639</v>
+        <v>1513413</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1541441</v>
+        <v>1540897</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.9444719407236383</v>
+        <v>0.9444719407236384</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9350203918996584</v>
+        <v>0.9348806541780545</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9521943870835697</v>
+        <v>0.951858294455422</v>
       </c>
     </row>
     <row r="39">
